--- a/data/trans_orig/P45C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF5A8A4-7771-4982-A2EC-02FCD0034DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8E91BB-8D20-4B1A-9FE2-4F928ED0D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D256256C-A374-46B6-B4DE-3E25F6C0E9AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FAA3E8B-C66A-461D-80EE-8237C6498E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="685">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1999 +77,2011 @@
     <t>76,19%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>72,89%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>Sí con ampollas</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>Sí con ampollas</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -2493,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C766A4CA-8D80-48F7-A38D-5E86220C322B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9B316-BDCB-478D-A7D8-25A836C275B0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2629,7 +2641,7 @@
         <v>351</v>
       </c>
       <c r="I4" s="7">
-        <v>339444</v>
+        <v>339443</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2680,7 +2692,7 @@
         <v>127</v>
       </c>
       <c r="I5" s="7">
-        <v>118521</v>
+        <v>118520</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2782,7 +2794,7 @@
         <v>487</v>
       </c>
       <c r="I7" s="7">
-        <v>465690</v>
+        <v>465689</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2871,7 +2883,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="7">
-        <v>140272</v>
+        <v>140271</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2973,7 +2985,7 @@
         <v>701</v>
       </c>
       <c r="D11" s="7">
-        <v>733589</v>
+        <v>733588</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3062,10 +3074,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3092,13 @@
         <v>88229</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -3095,13 +3107,13 @@
         <v>60987</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -3110,13 +3122,13 @@
         <v>149216</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3143,13 @@
         <v>5863</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3146,13 +3158,13 @@
         <v>17972</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -3161,13 +3173,13 @@
         <v>23835</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3235,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3235,13 +3247,13 @@
         <v>435103</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>451</v>
@@ -3250,13 +3262,13 @@
         <v>462995</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>858</v>
@@ -3265,13 +3277,13 @@
         <v>898098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3298,13 @@
         <v>71338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -3301,13 +3313,13 @@
         <v>42175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -3316,13 +3328,13 @@
         <v>113513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3349,13 @@
         <v>11557</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3352,13 +3364,13 @@
         <v>8446</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -3367,13 +3379,13 @@
         <v>20003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3441,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3441,13 +3453,13 @@
         <v>348434</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -3456,13 +3468,13 @@
         <v>375770</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>721</v>
@@ -3471,13 +3483,13 @@
         <v>724204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3504,13 @@
         <v>32254</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -3507,13 +3519,13 @@
         <v>21307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -3522,13 +3534,13 @@
         <v>53561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3555,13 @@
         <v>4955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3558,13 +3570,13 @@
         <v>6909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3573,13 +3585,13 @@
         <v>11864</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3647,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3647,13 +3659,13 @@
         <v>473932</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>639</v>
@@ -3662,13 +3674,13 @@
         <v>655311</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>1134</v>
@@ -3677,13 +3689,13 @@
         <v>1129243</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3710,13 @@
         <v>22356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3713,13 +3725,13 @@
         <v>15499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3728,13 +3740,13 @@
         <v>37855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,10 +3761,10 @@
         <v>5122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>168</v>
@@ -3764,13 +3776,13 @@
         <v>3792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3779,13 +3791,13 @@
         <v>8913</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3865,13 @@
         <v>2755397</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>2868</v>
@@ -3868,13 +3880,13 @@
         <v>2952057</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7">
         <v>5568</v>
@@ -3883,13 +3895,13 @@
         <v>5707455</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3916,13 @@
         <v>458326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>366</v>
@@ -3919,13 +3931,13 @@
         <v>362591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>820</v>
@@ -3934,13 +3946,13 @@
         <v>820917</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3967,13 @@
         <v>55141</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>55</v>
@@ -3970,13 +3982,13 @@
         <v>56351</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>107</v>
@@ -3985,13 +3997,13 @@
         <v>111492</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4059,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4069,7 +4081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532682B8-120D-4DCA-9F5A-B55F2F555BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745DD23-84BC-49AF-B654-E12833CFD6A6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4086,7 +4098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4193,13 +4205,13 @@
         <v>307752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7">
         <v>290</v>
@@ -4208,13 +4220,13 @@
         <v>298159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>590</v>
@@ -4223,13 +4235,13 @@
         <v>605911</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4256,13 @@
         <v>137039</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>120</v>
@@ -4259,13 +4271,13 @@
         <v>120007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>257</v>
@@ -4274,13 +4286,13 @@
         <v>257046</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4307,13 @@
         <v>5870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4310,13 +4322,13 @@
         <v>7862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4325,13 +4337,13 @@
         <v>13732</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4411,13 @@
         <v>513857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4414,13 +4426,13 @@
         <v>519281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -4429,13 +4441,13 @@
         <v>1033138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4462,13 @@
         <v>150058</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -4465,13 +4477,13 @@
         <v>80201</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M9" s="7">
         <v>224</v>
@@ -4480,13 +4492,13 @@
         <v>230260</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4513,13 @@
         <v>18407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4516,13 +4528,13 @@
         <v>8845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4531,13 +4543,13 @@
         <v>27252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,28 +4617,28 @@
         <v>567120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>562</v>
       </c>
       <c r="I12" s="7">
-        <v>596355</v>
+        <v>596356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>1104</v>
@@ -4635,13 +4647,13 @@
         <v>1163475</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,28 +4668,28 @@
         <v>107948</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>92734</v>
+        <v>92735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -4686,13 +4698,13 @@
         <v>200682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4719,13 @@
         <v>3955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4722,13 +4734,13 @@
         <v>15367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4737,13 +4749,13 @@
         <v>19321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +4782,7 @@
         <v>661</v>
       </c>
       <c r="I15" s="7">
-        <v>704456</v>
+        <v>704457</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4799,7 +4811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4811,13 +4823,13 @@
         <v>506737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>471</v>
@@ -4826,13 +4838,13 @@
         <v>541296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>916</v>
@@ -4841,13 +4853,13 @@
         <v>1048034</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4874,13 @@
         <v>91891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4877,13 +4889,13 @@
         <v>56892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4892,13 +4904,13 @@
         <v>148783</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4925,13 @@
         <v>9643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4928,13 +4940,13 @@
         <v>13737</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>193</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4943,13 +4955,13 @@
         <v>23379</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +5017,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5017,13 +5029,13 @@
         <v>384234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>365</v>
@@ -5032,13 +5044,13 @@
         <v>404158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -5047,13 +5059,13 @@
         <v>788392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5080,13 @@
         <v>39899</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5083,13 +5095,13 @@
         <v>37069</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -5098,13 +5110,13 @@
         <v>76969</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5131,13 @@
         <v>3225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5134,13 +5146,13 @@
         <v>4433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -5149,13 +5161,13 @@
         <v>7657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5223,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5223,13 +5235,13 @@
         <v>521443</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>644</v>
@@ -5238,13 +5250,13 @@
         <v>689488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>1111</v>
@@ -5253,13 +5265,13 @@
         <v>1210930</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5286,13 @@
         <v>27058</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5289,13 +5301,13 @@
         <v>31526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -5304,13 +5316,13 @@
         <v>58584</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5337,13 @@
         <v>2914</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5340,13 +5352,13 @@
         <v>6017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>94</v>
+        <v>345</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -5355,13 +5367,13 @@
         <v>8930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5441,13 @@
         <v>2801143</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H28" s="7">
         <v>2817</v>
@@ -5444,28 +5456,28 @@
         <v>3048737</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M28" s="7">
         <v>5416</v>
       </c>
       <c r="N28" s="7">
-        <v>5849880</v>
+        <v>5849879</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5492,13 @@
         <v>553893</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H29" s="7">
         <v>395</v>
@@ -5495,13 +5507,13 @@
         <v>418430</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M29" s="7">
         <v>936</v>
@@ -5510,13 +5522,13 @@
         <v>972323</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5543,7 @@
         <v>44012</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>367</v>
@@ -5546,13 +5558,13 @@
         <v>56260</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M30" s="7">
         <v>95</v>
@@ -5561,13 +5573,13 @@
         <v>100272</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5621,7 @@
         <v>6447</v>
       </c>
       <c r="N31" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -5623,7 +5635,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5645,7 +5657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B8020C-4BA6-4447-B612-D1CE12B5B6DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431D6B1-F389-4251-9A29-8AC42791FBC2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5662,7 +5674,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5769,13 +5781,13 @@
         <v>314551</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H4" s="7">
         <v>305</v>
@@ -5784,13 +5796,13 @@
         <v>297634</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M4" s="7">
         <v>603</v>
@@ -5799,13 +5811,13 @@
         <v>612186</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5832,13 @@
         <v>93672</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5835,13 +5847,13 @@
         <v>84871</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>172</v>
@@ -5850,13 +5862,13 @@
         <v>178543</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5883,13 @@
         <v>6588</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>278</v>
+        <v>392</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -5886,13 +5898,13 @@
         <v>12224</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -5901,13 +5913,13 @@
         <v>18812</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5987,13 @@
         <v>475784</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5990,13 +6002,13 @@
         <v>437456</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -6005,13 +6017,13 @@
         <v>913240</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6038,13 @@
         <v>102439</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H9" s="7">
         <v>121</v>
@@ -6041,13 +6053,13 @@
         <v>118632</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M9" s="7">
         <v>220</v>
@@ -6056,7 +6068,7 @@
         <v>221070</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>415</v>
@@ -6092,13 +6104,13 @@
         <v>6517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6107,13 +6119,13 @@
         <v>13573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6193,13 @@
         <v>583727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H12" s="7">
         <v>573</v>
@@ -6196,13 +6208,13 @@
         <v>568781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>1129</v>
@@ -6211,13 +6223,13 @@
         <v>1152508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>126</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6244,13 @@
         <v>75768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -6247,13 +6259,13 @@
         <v>85135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -6262,13 +6274,13 @@
         <v>160903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6295,13 @@
         <v>6598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6298,13 +6310,13 @@
         <v>2880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -6313,13 +6325,13 @@
         <v>9478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6387,13 +6399,13 @@
         <v>564689</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H16" s="7">
         <v>530</v>
@@ -6402,13 +6414,13 @@
         <v>571009</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>1037</v>
@@ -6417,13 +6429,13 @@
         <v>1135698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6450,13 @@
         <v>76099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6453,13 +6465,13 @@
         <v>61732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>461</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -6468,13 +6480,13 @@
         <v>137831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6501,13 @@
         <v>2088</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -6504,13 +6516,13 @@
         <v>9967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -6519,13 +6531,13 @@
         <v>12055</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,7 +6593,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6593,13 +6605,13 @@
         <v>423944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>385</v>
@@ -6608,13 +6620,13 @@
         <v>441273</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>762</v>
@@ -6623,13 +6635,13 @@
         <v>865218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6656,13 @@
         <v>46469</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -6659,13 +6671,13 @@
         <v>47301</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M21" s="7">
         <v>82</v>
@@ -6674,13 +6686,13 @@
         <v>93770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6707,13 @@
         <v>4035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6710,13 +6722,13 @@
         <v>4653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6725,13 +6737,13 @@
         <v>8688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,7 +6799,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6799,13 +6811,13 @@
         <v>549422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>609</v>
@@ -6814,13 +6826,13 @@
         <v>724608</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>1196</v>
@@ -6829,13 +6841,13 @@
         <v>1274030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6862,13 @@
         <v>27903</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6865,13 +6877,13 @@
         <v>40253</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -6880,13 +6892,13 @@
         <v>68156</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6913,13 @@
         <v>4437</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>221</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6916,13 +6928,13 @@
         <v>3283</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6931,13 +6943,13 @@
         <v>7720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7017,13 @@
         <v>2912118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>357</v>
+        <v>512</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H28" s="7">
         <v>2852</v>
@@ -7020,13 +7032,13 @@
         <v>3040762</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M28" s="7">
         <v>5633</v>
@@ -7035,13 +7047,13 @@
         <v>5952880</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7068,13 @@
         <v>422351</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>518</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>425</v>
@@ -7071,13 +7083,13 @@
         <v>437923</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M29" s="7">
         <v>820</v>
@@ -7086,13 +7098,13 @@
         <v>860274</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7119,13 @@
         <v>30803</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -7122,10 +7134,10 @@
         <v>39523</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>525</v>
+        <v>61</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>526</v>
+        <v>245</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>527</v>
@@ -7137,13 +7149,13 @@
         <v>70326</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>528</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>529</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,7 +7211,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7221,7 +7233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC74554-B817-43D6-9425-43E1EA4BE49C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E265E55-4D90-4709-A6C2-7D04EFA358F5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7238,7 +7250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7345,13 +7357,13 @@
         <v>292381</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
@@ -7360,13 +7372,13 @@
         <v>277233</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>401</v>
+        <v>533</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -7381,7 +7393,7 @@
         <v>536</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>537</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7408,13 @@
         <v>78655</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -7411,10 +7423,10 @@
         <v>72902</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>542</v>
@@ -7447,13 +7459,13 @@
         <v>6643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7462,13 +7474,13 @@
         <v>4823</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>548</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -7477,13 +7489,13 @@
         <v>11465</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>549</v>
+        <v>90</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7563,13 @@
         <v>312133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -7566,13 +7578,13 @@
         <v>396536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
@@ -7581,13 +7593,13 @@
         <v>708669</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7614,13 @@
         <v>106936</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
@@ -7617,13 +7629,13 @@
         <v>88754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>437</v>
+        <v>565</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -7632,13 +7644,13 @@
         <v>195689</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7665,13 @@
         <v>9327</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -7668,13 +7680,13 @@
         <v>13128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7683,13 +7695,13 @@
         <v>22455</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7769,13 @@
         <v>434315</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H12" s="7">
         <v>721</v>
@@ -7772,13 +7784,13 @@
         <v>489556</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M12" s="7">
         <v>1158</v>
@@ -7787,13 +7799,13 @@
         <v>923871</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7820,13 @@
         <v>108040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -7823,13 +7835,13 @@
         <v>82484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -7838,13 +7850,13 @@
         <v>190524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>591</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7871,13 @@
         <v>11283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>592</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>594</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7874,13 +7886,13 @@
         <v>11435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>596</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -7889,13 +7901,13 @@
         <v>22719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>597</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,7 +7963,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7963,13 +7975,13 @@
         <v>614171</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>602</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H16" s="7">
         <v>989</v>
@@ -7978,13 +7990,13 @@
         <v>640974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>1555</v>
@@ -7993,13 +8005,13 @@
         <v>1255146</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8026,13 @@
         <v>95694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H17" s="7">
         <v>129</v>
@@ -8029,13 +8041,13 @@
         <v>91020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -8044,10 +8056,10 @@
         <v>186714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>614</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>615</v>
@@ -8065,7 +8077,7 @@
         <v>12978</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>616</v>
@@ -8083,7 +8095,7 @@
         <v>618</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
@@ -8095,13 +8107,13 @@
         <v>26200</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>619</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,7 +8169,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8169,13 +8181,13 @@
         <v>516029</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H20" s="7">
         <v>887</v>
@@ -8184,13 +8196,13 @@
         <v>526296</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M20" s="7">
         <v>1461</v>
@@ -8199,13 +8211,13 @@
         <v>1042325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8232,13 @@
         <v>69539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -8235,7 +8247,7 @@
         <v>61344</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>631</v>
+        <v>290</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>632</v>
@@ -8253,7 +8265,7 @@
         <v>634</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>635</v>
@@ -8274,7 +8286,7 @@
         <v>636</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>637</v>
@@ -8286,13 +8298,13 @@
         <v>8777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>638</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -8301,13 +8313,13 @@
         <v>22349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,7 +8375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8375,13 +8387,13 @@
         <v>636136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H24" s="7">
         <v>1601</v>
@@ -8390,10 +8402,10 @@
         <v>972426</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>646</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>647</v>
@@ -8444,10 +8456,10 @@
         <v>654</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>498</v>
+        <v>655</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>656</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -8456,13 +8468,13 @@
         <v>105442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,13 +8489,13 @@
         <v>3827</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>619</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -8492,13 +8504,13 @@
         <v>4425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>658</v>
+        <v>268</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>660</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -8507,13 +8519,13 @@
         <v>8252</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8593,13 @@
         <v>2805166</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>665</v>
       </c>
       <c r="H28" s="7">
         <v>4731</v>
@@ -8596,13 +8608,13 @@
         <v>3303022</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="M28" s="7">
         <v>7601</v>
@@ -8611,13 +8623,13 @@
         <v>6108188</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>666</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8644,13 @@
         <v>515170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H29" s="7">
         <v>557</v>
@@ -8647,13 +8659,13 @@
         <v>445638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M29" s="7">
         <v>1006</v>
@@ -8662,13 +8674,13 @@
         <v>960809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,13 +8695,13 @@
         <v>57631</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>679</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>419</v>
+        <v>680</v>
       </c>
       <c r="H30" s="7">
         <v>70</v>
@@ -8698,13 +8710,13 @@
         <v>55810</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>92</v>
+        <v>638</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -8713,13 +8725,13 @@
         <v>113441</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8775,7 +8787,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8E91BB-8D20-4B1A-9FE2-4F928ED0D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADE627B-A593-4F82-BCE3-4CC9330DE02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FAA3E8B-C66A-461D-80EE-8237C6498E2C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F89D9DC-7FBF-4FBF-8E23-D31AB80CA3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>76,19%</t>
   </si>
   <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>72,89%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>Si sin ampollas</t>
@@ -107,28 +107,28 @@
     <t>21,1%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>Sí con ampollas</t>
@@ -137,1963 +137,1963 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>84,05%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>16,77%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
+    <t>10,5%</t>
+  </si>
+  <si>
     <t>12,9%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9B316-BDCB-478D-A7D8-25A836C275B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC9410E-230A-4DAD-86F4-7EB10D214072}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2883,7 +2883,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="7">
-        <v>140271</v>
+        <v>140272</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2985,7 +2985,7 @@
         <v>701</v>
       </c>
       <c r="D11" s="7">
-        <v>733588</v>
+        <v>733589</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3074,10 +3074,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3092,13 @@
         <v>88229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -3107,13 +3107,13 @@
         <v>60987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -3122,13 +3122,13 @@
         <v>149216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3143,13 @@
         <v>5863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3158,13 +3158,13 @@
         <v>17972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -3173,13 +3173,13 @@
         <v>23835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3235,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3247,13 +3247,13 @@
         <v>435103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>451</v>
@@ -3262,13 +3262,13 @@
         <v>462995</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>858</v>
@@ -3277,13 +3277,13 @@
         <v>898098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3298,13 @@
         <v>71338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -3313,13 +3313,13 @@
         <v>42175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -3328,13 +3328,13 @@
         <v>113513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3349,13 @@
         <v>11557</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3364,13 +3364,13 @@
         <v>8446</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -3379,13 +3379,13 @@
         <v>20003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +3441,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3453,13 +3453,13 @@
         <v>348434</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -3468,13 +3468,13 @@
         <v>375770</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>721</v>
@@ -3483,13 +3483,13 @@
         <v>724204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3504,13 @@
         <v>32254</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -3519,13 +3519,13 @@
         <v>21307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -3534,13 +3534,13 @@
         <v>53561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3555,13 @@
         <v>4955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3570,13 +3570,13 @@
         <v>6909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3585,13 +3585,13 @@
         <v>11864</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3647,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3659,13 +3659,13 @@
         <v>473932</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>639</v>
@@ -3674,13 +3674,13 @@
         <v>655311</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>1134</v>
@@ -3689,13 +3689,13 @@
         <v>1129243</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3710,13 @@
         <v>22356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3725,13 +3725,13 @@
         <v>15499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3740,13 +3740,13 @@
         <v>37855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3761,13 @@
         <v>5122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3776,13 +3776,13 @@
         <v>3792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3791,13 +3791,13 @@
         <v>8913</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3865,13 @@
         <v>2755397</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>2868</v>
@@ -3880,13 +3880,13 @@
         <v>2952057</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
         <v>5568</v>
@@ -3895,13 +3895,13 @@
         <v>5707455</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3916,13 @@
         <v>458326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>366</v>
@@ -3931,13 +3931,13 @@
         <v>362591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>820</v>
@@ -3946,13 +3946,13 @@
         <v>820917</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3967,13 @@
         <v>55141</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>55</v>
@@ -3982,13 +3982,13 @@
         <v>56351</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>107</v>
@@ -3997,13 +3997,13 @@
         <v>111492</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,7 +4059,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745DD23-84BC-49AF-B654-E12833CFD6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B977B4-021D-4801-A642-3707D6CE2376}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4098,7 +4098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4205,13 +4205,13 @@
         <v>307752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>290</v>
@@ -4220,13 +4220,13 @@
         <v>298159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>590</v>
@@ -4235,13 +4235,13 @@
         <v>605911</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4256,13 @@
         <v>137039</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>120</v>
@@ -4271,13 +4271,13 @@
         <v>120007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>257</v>
@@ -4286,13 +4286,13 @@
         <v>257046</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4307,13 @@
         <v>5870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4322,13 +4322,13 @@
         <v>7862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4337,13 +4337,13 @@
         <v>13732</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4411,13 @@
         <v>513857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4426,13 +4426,13 @@
         <v>519281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -4441,13 +4441,13 @@
         <v>1033138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4462,13 @@
         <v>150058</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -4477,13 +4477,13 @@
         <v>80201</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M9" s="7">
         <v>224</v>
@@ -4492,13 +4492,13 @@
         <v>230260</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4513,13 @@
         <v>18407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4528,13 +4528,13 @@
         <v>8845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4543,13 +4543,13 @@
         <v>27252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,16 +4614,16 @@
         <v>542</v>
       </c>
       <c r="D12" s="7">
-        <v>567120</v>
+        <v>567119</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>562</v>
@@ -4632,13 +4632,13 @@
         <v>596356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>1104</v>
@@ -4647,13 +4647,13 @@
         <v>1163475</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,16 +4665,16 @@
         <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>107948</v>
+        <v>107947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -4683,13 +4683,13 @@
         <v>92735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -4698,13 +4698,13 @@
         <v>200682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4719,13 @@
         <v>3955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4734,13 +4734,13 @@
         <v>15367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4749,13 +4749,13 @@
         <v>19321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,7 +4767,7 @@
         <v>648</v>
       </c>
       <c r="D15" s="7">
-        <v>679022</v>
+        <v>679021</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4823,13 +4823,13 @@
         <v>506737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>471</v>
@@ -4838,13 +4838,13 @@
         <v>541296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>916</v>
@@ -4853,13 +4853,13 @@
         <v>1048034</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4874,13 @@
         <v>91891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4889,13 +4889,13 @@
         <v>56892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4904,13 +4904,13 @@
         <v>148783</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4925,13 @@
         <v>9643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4940,13 +4940,13 @@
         <v>13737</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4955,13 +4955,13 @@
         <v>23379</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5017,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5029,13 +5029,13 @@
         <v>384234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>365</v>
@@ -5044,13 +5044,13 @@
         <v>404158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -5059,13 +5059,13 @@
         <v>788392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5080,13 @@
         <v>39899</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5095,13 +5095,13 @@
         <v>37069</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -5110,13 +5110,13 @@
         <v>76969</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5131,13 @@
         <v>3225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5146,13 +5146,13 @@
         <v>4433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -5161,13 +5161,13 @@
         <v>7657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,7 +5223,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5235,13 +5235,13 @@
         <v>521443</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>644</v>
@@ -5250,13 +5250,13 @@
         <v>689488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>1111</v>
@@ -5265,13 +5265,13 @@
         <v>1210930</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5286,13 @@
         <v>27058</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5301,13 +5301,13 @@
         <v>31526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -5316,13 +5316,13 @@
         <v>58584</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5337,13 @@
         <v>2914</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5352,13 +5352,13 @@
         <v>6017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -5367,13 +5367,13 @@
         <v>8930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5441,13 @@
         <v>2801143</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H28" s="7">
         <v>2817</v>
@@ -5456,28 +5456,28 @@
         <v>3048737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>5416</v>
       </c>
       <c r="N28" s="7">
-        <v>5849879</v>
+        <v>5849880</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5492,13 @@
         <v>553893</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H29" s="7">
         <v>395</v>
@@ -5507,13 +5507,13 @@
         <v>418430</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M29" s="7">
         <v>936</v>
@@ -5522,13 +5522,13 @@
         <v>972323</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5543,13 @@
         <v>44012</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>53</v>
@@ -5558,13 +5558,13 @@
         <v>56260</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>95</v>
@@ -5573,13 +5573,13 @@
         <v>100272</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>370</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
         <v>6447</v>
       </c>
       <c r="N31" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5657,7 +5657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431D6B1-F389-4251-9A29-8AC42791FBC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EBEA25-9257-4E17-AB98-1E52B116C21C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5674,7 +5674,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5781,13 +5781,13 @@
         <v>314551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>305</v>
@@ -5796,13 +5796,13 @@
         <v>297634</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>603</v>
@@ -5811,13 +5811,13 @@
         <v>612186</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5832,13 @@
         <v>93672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5847,13 +5847,13 @@
         <v>84871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>172</v>
@@ -5862,13 +5862,13 @@
         <v>178543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5883,13 @@
         <v>6588</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -5898,13 +5898,13 @@
         <v>12224</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -5913,13 +5913,13 @@
         <v>18812</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5987,13 @@
         <v>475784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -6002,13 +6002,13 @@
         <v>437456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -6017,13 +6017,13 @@
         <v>913240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6038,13 @@
         <v>102439</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H9" s="7">
         <v>121</v>
@@ -6053,13 +6053,13 @@
         <v>118632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M9" s="7">
         <v>220</v>
@@ -6068,13 +6068,13 @@
         <v>221070</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6089,13 @@
         <v>7057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6104,13 +6104,13 @@
         <v>6517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6119,13 +6119,13 @@
         <v>13573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6193,13 @@
         <v>583727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H12" s="7">
         <v>573</v>
@@ -6208,13 +6208,13 @@
         <v>568781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>1129</v>
@@ -6223,13 +6223,13 @@
         <v>1152508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>101</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6244,13 @@
         <v>75768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -6259,13 +6259,13 @@
         <v>85135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -6274,13 +6274,13 @@
         <v>160903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6295,13 @@
         <v>6598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6310,13 +6310,13 @@
         <v>2880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -6325,13 +6325,13 @@
         <v>9478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6399,13 @@
         <v>564689</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>530</v>
@@ -6414,13 +6414,13 @@
         <v>571009</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>1037</v>
@@ -6429,13 +6429,13 @@
         <v>1135698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6450,13 @@
         <v>76099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6465,13 +6465,13 @@
         <v>61732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -6480,13 +6480,13 @@
         <v>137831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6501,13 @@
         <v>2088</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -6516,13 +6516,13 @@
         <v>9967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>467</v>
+        <v>350</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>468</v>
+        <v>150</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>469</v>
+        <v>145</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -6531,13 +6531,13 @@
         <v>12055</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>470</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>471</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6605,13 +6605,13 @@
         <v>423944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>385</v>
@@ -6620,13 +6620,13 @@
         <v>441273</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>762</v>
@@ -6635,13 +6635,13 @@
         <v>865218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6656,13 @@
         <v>46469</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -6671,13 +6671,13 @@
         <v>47301</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M21" s="7">
         <v>82</v>
@@ -6686,13 +6686,13 @@
         <v>93770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>187</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6707,13 @@
         <v>4035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6722,13 +6722,13 @@
         <v>4653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>470</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6737,13 +6737,13 @@
         <v>8688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>172</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,7 +6799,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6811,13 +6811,13 @@
         <v>549422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H24" s="7">
         <v>609</v>
@@ -6826,13 +6826,13 @@
         <v>724608</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>1196</v>
@@ -6841,13 +6841,13 @@
         <v>1274030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>327</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6862,13 @@
         <v>27903</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>65</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6877,13 +6877,13 @@
         <v>40253</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>505</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -6892,13 +6892,13 @@
         <v>68156</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6913,13 @@
         <v>4437</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>507</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6928,13 +6928,13 @@
         <v>3283</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6943,13 +6943,13 @@
         <v>7720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +7017,13 @@
         <v>2912118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H28" s="7">
         <v>2852</v>
@@ -7032,13 +7032,13 @@
         <v>3040762</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>515</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>5633</v>
@@ -7047,13 +7047,13 @@
         <v>5952880</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7068,13 @@
         <v>422351</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>523</v>
       </c>
       <c r="H29" s="7">
         <v>425</v>
@@ -7083,13 +7083,13 @@
         <v>437923</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M29" s="7">
         <v>820</v>
@@ -7098,13 +7098,13 @@
         <v>860274</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7119,13 @@
         <v>30803</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>270</v>
+        <v>373</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -7134,13 +7134,13 @@
         <v>39523</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>245</v>
+        <v>530</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -7149,13 +7149,13 @@
         <v>70326</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>528</v>
+        <v>150</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,7 +7211,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7233,7 +7233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E265E55-4D90-4709-A6C2-7D04EFA358F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBF2D7B-BF14-4AE3-BAB3-BAD33C411351}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7250,7 +7250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7357,13 +7357,13 @@
         <v>292381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
@@ -7372,13 +7372,13 @@
         <v>277233</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>374</v>
+        <v>537</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -7387,13 +7387,13 @@
         <v>569614</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7408,13 @@
         <v>78655</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -7423,13 +7423,13 @@
         <v>72902</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -7438,13 +7438,13 @@
         <v>151557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7459,13 @@
         <v>6643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>546</v>
+        <v>375</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7474,13 +7474,13 @@
         <v>4823</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>548</v>
+        <v>166</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -7489,13 +7489,13 @@
         <v>11465</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>554</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>552</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,13 +7563,13 @@
         <v>312133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -7578,13 +7578,13 @@
         <v>396536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>556</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
@@ -7593,13 +7593,13 @@
         <v>708669</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7614,13 @@
         <v>106936</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
@@ -7629,13 +7629,13 @@
         <v>88754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>564</v>
+        <v>417</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -7644,13 +7644,13 @@
         <v>195689</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,10 +7665,10 @@
         <v>9327</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>570</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>571</v>
@@ -7683,10 +7683,10 @@
         <v>572</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7695,10 +7695,10 @@
         <v>22455</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>575</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>576</v>
@@ -7775,7 +7775,7 @@
         <v>578</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>579</v>
+        <v>263</v>
       </c>
       <c r="H12" s="7">
         <v>721</v>
@@ -7784,13 +7784,13 @@
         <v>489556</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M12" s="7">
         <v>1158</v>
@@ -7799,13 +7799,13 @@
         <v>923871</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7820,13 @@
         <v>108040</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -7835,13 +7835,13 @@
         <v>82484</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -7850,13 +7850,13 @@
         <v>190524</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,7 +7871,7 @@
         <v>11283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>448</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>594</v>
@@ -7892,7 +7892,7 @@
         <v>597</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>598</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -7901,13 +7901,13 @@
         <v>22719</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,7 +7963,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7975,13 +7975,13 @@
         <v>614171</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H16" s="7">
         <v>989</v>
@@ -7990,13 +7990,13 @@
         <v>640974</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>1555</v>
@@ -8005,13 +8005,13 @@
         <v>1255146</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8056,13 @@
         <v>186714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>615</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>616</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8077,13 @@
         <v>12978</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -8092,13 +8092,13 @@
         <v>13222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>621</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -8107,13 +8107,13 @@
         <v>26200</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>619</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,7 +8169,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8181,13 +8181,13 @@
         <v>516029</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H20" s="7">
         <v>887</v>
@@ -8196,13 +8196,13 @@
         <v>526296</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M20" s="7">
         <v>1461</v>
@@ -8211,13 +8211,13 @@
         <v>1042325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,13 +8232,13 @@
         <v>69539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -8247,13 +8247,13 @@
         <v>61344</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>635</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>633</v>
+        <v>444</v>
       </c>
       <c r="M21" s="7">
         <v>175</v>
@@ -8262,13 +8262,13 @@
         <v>130883</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>307</v>
+        <v>638</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8283,13 +8283,13 @@
         <v>13572</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>636</v>
+        <v>169</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>640</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>637</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -8298,13 +8298,13 @@
         <v>8777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>640</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -8313,13 +8313,13 @@
         <v>22349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>641</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>643</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,7 +8375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8387,13 +8387,13 @@
         <v>636136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>644</v>
+        <v>477</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>1601</v>
@@ -8402,13 +8402,13 @@
         <v>972426</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>330</v>
+        <v>648</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M24" s="7">
         <v>2532</v>
@@ -8417,13 +8417,13 @@
         <v>1608563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,13 +8438,13 @@
         <v>56307</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -8453,13 +8453,13 @@
         <v>49136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -8468,13 +8468,13 @@
         <v>105442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8489,13 +8489,13 @@
         <v>3827</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>317</v>
+        <v>662</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -8504,13 +8504,13 @@
         <v>4425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>268</v>
+        <v>663</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -8519,13 +8519,13 @@
         <v>8252</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8593,13 +8593,13 @@
         <v>2805166</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="H28" s="7">
         <v>4731</v>
@@ -8608,13 +8608,13 @@
         <v>3303022</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M28" s="7">
         <v>7601</v>
@@ -8623,13 +8623,13 @@
         <v>6108188</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>672</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>670</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8644,13 +8644,13 @@
         <v>515170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>672</v>
+        <v>525</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H29" s="7">
         <v>557</v>
@@ -8659,13 +8659,13 @@
         <v>445638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>613</v>
+        <v>677</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="M29" s="7">
         <v>1006</v>
@@ -8674,13 +8674,13 @@
         <v>960809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,13 +8695,13 @@
         <v>57631</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>679</v>
+        <v>450</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H30" s="7">
         <v>70</v>
@@ -8710,13 +8710,13 @@
         <v>55810</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>681</v>
+        <v>122</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -8725,13 +8725,13 @@
         <v>113441</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>684</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8787,7 +8787,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADE627B-A593-4F82-BCE3-4CC9330DE02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F733862-299E-48CF-9DE5-0B4636E263C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F89D9DC-7FBF-4FBF-8E23-D31AB80CA3FE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{905BE45D-43E9-4FC9-B7CA-10FA5FEA723B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="759">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>78,93%</t>
@@ -248,7 +248,7 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>85,25%</t>
@@ -329,7 +329,7 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>84,0%</t>
@@ -413,7 +413,7 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>90,35%</t>
@@ -497,1603 +497,1825 @@
     <t>2,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -2505,8 +2727,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC9410E-230A-4DAD-86F4-7EB10D214072}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16250B50-8238-4744-A0E5-30F1A0930F22}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2862,7 +3084,7 @@
         <v>1023</v>
       </c>
       <c r="N8" s="7">
-        <v>1087748</v>
+        <v>1087747</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -3015,7 +3237,7 @@
         <v>1291</v>
       </c>
       <c r="N11" s="7">
-        <v>1357932</v>
+        <v>1357931</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3653,10 +3875,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>495</v>
+        <v>287</v>
       </c>
       <c r="D24" s="7">
-        <v>473932</v>
+        <v>276004</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>153</v>
@@ -3668,10 +3890,10 @@
         <v>155</v>
       </c>
       <c r="H24" s="7">
-        <v>639</v>
+        <v>355</v>
       </c>
       <c r="I24" s="7">
-        <v>655311</v>
+        <v>328233</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>156</v>
@@ -3683,10 +3905,10 @@
         <v>158</v>
       </c>
       <c r="M24" s="7">
-        <v>1134</v>
+        <v>642</v>
       </c>
       <c r="N24" s="7">
-        <v>1129243</v>
+        <v>604238</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>159</v>
@@ -3704,10 +3926,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>22356</v>
+        <v>13195</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>162</v>
@@ -3719,10 +3941,10 @@
         <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>15499</v>
+        <v>11983</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>165</v>
@@ -3734,19 +3956,19 @@
         <v>167</v>
       </c>
       <c r="M25" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N25" s="7">
-        <v>37855</v>
+        <v>25178</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,25 +3977,25 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>5122</v>
+        <v>2327</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>3792</v>
+        <v>2718</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>173</v>
@@ -3782,16 +4004,16 @@
         <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>8913</v>
+        <v>5046</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>176</v>
@@ -3806,10 +4028,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D27" s="7">
-        <v>501410</v>
+        <v>291527</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3821,10 +4043,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>674601</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3836,10 +4058,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1181</v>
+        <v>673</v>
       </c>
       <c r="N27" s="7">
-        <v>1176011</v>
+        <v>634461</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3853,55 +4075,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2700</v>
+        <v>208</v>
       </c>
       <c r="D28" s="7">
-        <v>2755397</v>
+        <v>197928</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>2868</v>
+        <v>284</v>
       </c>
       <c r="I28" s="7">
-        <v>2952057</v>
+        <v>327078</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
-        <v>5568</v>
+        <v>492</v>
       </c>
       <c r="N28" s="7">
-        <v>5707455</v>
+        <v>525005</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,49 +4132,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>454</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>458326</v>
+        <v>9161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>362591</v>
+        <v>3516</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
-        <v>820</v>
+        <v>12</v>
       </c>
       <c r="N29" s="7">
-        <v>820917</v>
+        <v>12677</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,49 +4183,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>55141</v>
+        <v>2794</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>56351</v>
+        <v>1074</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>111492</v>
+        <v>3868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,63 +4234,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>288</v>
+      </c>
+      <c r="I31" s="7">
+        <v>331667</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>508</v>
+      </c>
+      <c r="N31" s="7">
+        <v>541550</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2700</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2755397</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2868</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2952057</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5568</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5707455</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>454</v>
+      </c>
+      <c r="D33" s="7">
+        <v>458326</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7">
+        <v>366</v>
+      </c>
+      <c r="I33" s="7">
+        <v>362591</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="7">
+        <v>820</v>
+      </c>
+      <c r="N33" s="7">
+        <v>820917</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>52</v>
+      </c>
+      <c r="D34" s="7">
+        <v>55141</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7">
+        <v>55</v>
+      </c>
+      <c r="I34" s="7">
+        <v>56351</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M34" s="7">
+        <v>107</v>
+      </c>
+      <c r="N34" s="7">
+        <v>111492</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3206</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3268864</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3289</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3370999</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6495</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6639864</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4081,8 +4510,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B977B4-021D-4801-A642-3707D6CE2376}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B98944-E64E-4313-AF7F-4CC6F738E270}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4098,7 +4527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4205,13 +4634,13 @@
         <v>307752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>290</v>
@@ -4220,13 +4649,13 @@
         <v>298159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>590</v>
@@ -4235,13 +4664,13 @@
         <v>605911</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4685,13 @@
         <v>137039</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>120</v>
@@ -4271,13 +4700,13 @@
         <v>120007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>257</v>
@@ -4286,13 +4715,13 @@
         <v>257046</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,10 +4739,10 @@
         <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4322,13 +4751,13 @@
         <v>7862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4340,7 +4769,7 @@
         <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>95</v>
@@ -4411,13 +4840,13 @@
         <v>513857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4426,13 +4855,13 @@
         <v>519281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -4441,13 +4870,13 @@
         <v>1033138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4891,13 @@
         <v>150058</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -4477,13 +4906,13 @@
         <v>80201</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>224</v>
@@ -4492,13 +4921,13 @@
         <v>230260</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4942,13 @@
         <v>18407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4528,13 +4957,13 @@
         <v>8845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4543,13 +4972,13 @@
         <v>27252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +5046,13 @@
         <v>567119</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>562</v>
@@ -4632,13 +5061,13 @@
         <v>596356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>1104</v>
@@ -4647,13 +5076,13 @@
         <v>1163475</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +5097,13 @@
         <v>107947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -4683,13 +5112,13 @@
         <v>92735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -4698,13 +5127,13 @@
         <v>200682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +5148,13 @@
         <v>3955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4734,13 +5163,13 @@
         <v>15367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4749,13 +5178,13 @@
         <v>19321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +5252,13 @@
         <v>506737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>471</v>
@@ -4838,13 +5267,13 @@
         <v>541296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>916</v>
@@ -4853,13 +5282,13 @@
         <v>1048034</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +5303,13 @@
         <v>91891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4889,13 +5318,13 @@
         <v>56892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4904,13 +5333,13 @@
         <v>148783</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +5354,13 @@
         <v>9643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4940,13 +5369,13 @@
         <v>13737</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4955,13 +5384,13 @@
         <v>23379</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5458,13 @@
         <v>384234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>365</v>
@@ -5044,13 +5473,13 @@
         <v>404158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -5059,13 +5488,13 @@
         <v>788392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5509,13 @@
         <v>39899</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5095,13 +5524,13 @@
         <v>37069</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -5110,13 +5539,13 @@
         <v>76969</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5560,13 @@
         <v>3225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5146,13 +5575,13 @@
         <v>4433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -5161,13 +5590,13 @@
         <v>7657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,49 +5658,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>467</v>
+        <v>257</v>
       </c>
       <c r="D24" s="7">
-        <v>521443</v>
+        <v>284286</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="H24" s="7">
-        <v>644</v>
+        <v>320</v>
       </c>
       <c r="I24" s="7">
-        <v>689488</v>
+        <v>328815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M24" s="7">
-        <v>1111</v>
+        <v>577</v>
       </c>
       <c r="N24" s="7">
-        <v>1210930</v>
+        <v>613102</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +5709,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>27058</v>
+        <v>19647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="H25" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>31526</v>
+        <v>16394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N25" s="7">
-        <v>58584</v>
+        <v>36041</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,43 +5766,43 @@
         <v>2914</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>6017</v>
+        <v>3832</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>8930</v>
+        <v>6745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,10 +5811,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>496</v>
+        <v>279</v>
       </c>
       <c r="D27" s="7">
-        <v>551415</v>
+        <v>306847</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5397,10 +5826,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>679</v>
+        <v>339</v>
       </c>
       <c r="I27" s="7">
-        <v>727031</v>
+        <v>349041</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5412,10 +5841,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1175</v>
+        <v>618</v>
       </c>
       <c r="N27" s="7">
-        <v>1278445</v>
+        <v>655888</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5429,55 +5858,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2599</v>
+        <v>210</v>
       </c>
       <c r="D28" s="7">
-        <v>2801143</v>
+        <v>237157</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="H28" s="7">
-        <v>2817</v>
+        <v>324</v>
       </c>
       <c r="I28" s="7">
-        <v>3048737</v>
+        <v>360673</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="M28" s="7">
-        <v>5416</v>
+        <v>534</v>
       </c>
       <c r="N28" s="7">
-        <v>5849880</v>
+        <v>597830</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,49 +5915,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>541</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>553893</v>
+        <v>7411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>366</v>
+        <v>38</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
+        <v>14</v>
+      </c>
+      <c r="I29" s="7">
+        <v>15132</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M29" s="7">
+        <v>21</v>
+      </c>
+      <c r="N29" s="7">
+        <v>22543</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="I29" s="7">
-        <v>418430</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M29" s="7">
-        <v>936</v>
-      </c>
-      <c r="N29" s="7">
-        <v>972323</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,49 +5966,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>44012</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>373</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="H30" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>56260</v>
+        <v>2185</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="M30" s="7">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>100272</v>
+        <v>2185</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>251</v>
+        <v>398</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,63 +6017,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>217</v>
+      </c>
+      <c r="D31" s="7">
+        <v>244568</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>340</v>
+      </c>
+      <c r="I31" s="7">
+        <v>377990</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>557</v>
+      </c>
+      <c r="N31" s="7">
+        <v>622558</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2599</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2801142</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2817</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3048737</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5416</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5849880</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>541</v>
+      </c>
+      <c r="D33" s="7">
+        <v>553893</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H33" s="7">
+        <v>395</v>
+      </c>
+      <c r="I33" s="7">
+        <v>418430</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M33" s="7">
+        <v>936</v>
+      </c>
+      <c r="N33" s="7">
+        <v>972323</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7">
+        <v>44012</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H34" s="7">
+        <v>53</v>
+      </c>
+      <c r="I34" s="7">
+        <v>56260</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M34" s="7">
+        <v>95</v>
+      </c>
+      <c r="N34" s="7">
+        <v>100272</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3182</v>
       </c>
-      <c r="D31" s="7">
-        <v>3399048</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3399047</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3265</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3523427</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6447</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6922475</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5657,8 +6293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EBEA25-9257-4E17-AB98-1E52B116C21C}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64908C42-0F5D-4C65-81C7-69FB8403D9D4}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5674,7 +6310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5781,13 +6417,13 @@
         <v>314551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>305</v>
@@ -5796,13 +6432,13 @@
         <v>297634</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>603</v>
@@ -5811,13 +6447,13 @@
         <v>612186</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +6468,13 @@
         <v>93672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5847,13 +6483,13 @@
         <v>84871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>172</v>
@@ -5862,13 +6498,13 @@
         <v>178543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +6519,13 @@
         <v>6588</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -5898,7 +6534,7 @@
         <v>12224</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>118</v>
@@ -5913,13 +6549,13 @@
         <v>18812</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6623,13 @@
         <v>475784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -6002,13 +6638,13 @@
         <v>437456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -6017,13 +6653,13 @@
         <v>913240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6674,13 @@
         <v>102439</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="H9" s="7">
         <v>121</v>
@@ -6053,13 +6689,13 @@
         <v>118632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="M9" s="7">
         <v>220</v>
@@ -6068,13 +6704,13 @@
         <v>221070</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6725,13 @@
         <v>7057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6104,13 +6740,13 @@
         <v>6517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6119,13 +6755,13 @@
         <v>13573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6829,13 @@
         <v>583727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="H12" s="7">
         <v>573</v>
@@ -6208,13 +6844,13 @@
         <v>568781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="M12" s="7">
         <v>1129</v>
@@ -6226,10 +6862,10 @@
         <v>101</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6880,13 @@
         <v>75768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -6259,13 +6895,13 @@
         <v>85135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -6274,13 +6910,13 @@
         <v>160903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6931,13 @@
         <v>6598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6310,13 +6946,13 @@
         <v>2880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -6325,10 +6961,10 @@
         <v>9478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>67</v>
@@ -6399,13 +7035,13 @@
         <v>564689</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
         <v>530</v>
@@ -6414,13 +7050,13 @@
         <v>571009</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
         <v>1037</v>
@@ -6429,13 +7065,13 @@
         <v>1135698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +7086,13 @@
         <v>76099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6465,13 +7101,13 @@
         <v>61732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -6480,13 +7116,13 @@
         <v>137831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +7137,13 @@
         <v>2088</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>472</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -6516,7 +7152,7 @@
         <v>9967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>350</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>150</v>
@@ -6531,10 +7167,10 @@
         <v>12055</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>118</v>
@@ -6605,13 +7241,13 @@
         <v>423944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="H20" s="7">
         <v>385</v>
@@ -6620,13 +7256,13 @@
         <v>441273</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="M20" s="7">
         <v>762</v>
@@ -6635,13 +7271,13 @@
         <v>865218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +7292,13 @@
         <v>46469</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -6671,13 +7307,13 @@
         <v>47301</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="M21" s="7">
         <v>82</v>
@@ -6686,13 +7322,13 @@
         <v>93770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +7343,13 @@
         <v>4035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6722,13 +7358,13 @@
         <v>4653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6740,10 +7376,10 @@
         <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,49 +7441,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>587</v>
+        <v>302</v>
       </c>
       <c r="D24" s="7">
-        <v>549422</v>
+        <v>308803</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="H24" s="7">
-        <v>609</v>
+        <v>322</v>
       </c>
       <c r="I24" s="7">
-        <v>724608</v>
+        <v>343565</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="M24" s="7">
-        <v>1196</v>
+        <v>624</v>
       </c>
       <c r="N24" s="7">
-        <v>1274030</v>
+        <v>652368</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,49 +7492,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>27903</v>
+        <v>17913</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>65</v>
+        <v>545</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>546</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>40253</v>
+        <v>27164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N25" s="7">
-        <v>68156</v>
+        <v>45077</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,49 +7543,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2763</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
-        <v>4437</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3283</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="M26" s="7">
-        <v>7</v>
-      </c>
       <c r="N26" s="7">
-        <v>7720</v>
+        <v>4782</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,10 +7594,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>618</v>
+        <v>321</v>
       </c>
       <c r="D27" s="7">
-        <v>581762</v>
+        <v>329480</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6973,10 +7609,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>647</v>
+        <v>349</v>
       </c>
       <c r="I27" s="7">
-        <v>768144</v>
+        <v>372747</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6988,10 +7624,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1265</v>
+        <v>670</v>
       </c>
       <c r="N27" s="7">
-        <v>1349906</v>
+        <v>702227</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7005,55 +7641,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2781</v>
+        <v>285</v>
       </c>
       <c r="D28" s="7">
-        <v>2912118</v>
+        <v>240618</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>360</v>
+        <v>557</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="H28" s="7">
-        <v>2852</v>
+        <v>287</v>
       </c>
       <c r="I28" s="7">
-        <v>3040762</v>
+        <v>381042</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>518</v>
+        <v>387</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>561</v>
       </c>
       <c r="M28" s="7">
-        <v>5633</v>
+        <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>5952880</v>
+        <v>621662</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>481</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,49 +7698,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>395</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>422351</v>
+        <v>9990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="H29" s="7">
-        <v>425</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>437923</v>
+        <v>13089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>438</v>
+        <v>569</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="M29" s="7">
-        <v>820</v>
+        <v>20</v>
       </c>
       <c r="N29" s="7">
-        <v>860274</v>
+        <v>23079</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>527</v>
+        <v>351</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,49 +7749,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>30803</v>
+        <v>1674</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>573</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>529</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="H30" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>39523</v>
+        <v>1264</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>530</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>531</v>
+        <v>418</v>
       </c>
       <c r="M30" s="7">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>70326</v>
+        <v>2938</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>150</v>
+        <v>574</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,63 +7800,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>297</v>
+      </c>
+      <c r="D31" s="7">
+        <v>252282</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>298</v>
+      </c>
+      <c r="I31" s="7">
+        <v>395396</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>595</v>
+      </c>
+      <c r="N31" s="7">
+        <v>647679</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2781</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2912118</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2852</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3040762</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5633</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5952880</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>395</v>
+      </c>
+      <c r="D33" s="7">
+        <v>422351</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H33" s="7">
+        <v>425</v>
+      </c>
+      <c r="I33" s="7">
+        <v>437923</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="M33" s="7">
+        <v>820</v>
+      </c>
+      <c r="N33" s="7">
+        <v>860274</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>28</v>
+      </c>
+      <c r="D34" s="7">
+        <v>30803</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H34" s="7">
+        <v>38</v>
+      </c>
+      <c r="I34" s="7">
+        <v>39523</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="M34" s="7">
+        <v>66</v>
+      </c>
+      <c r="N34" s="7">
+        <v>70326</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3204</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3365272</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3315</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3518208</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6519</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6883480</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7233,8 +8076,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBF2D7B-BF14-4AE3-BAB3-BAD33C411351}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7498FB6-20A0-48C6-B4F3-0F2D549C86F9}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7250,7 +8093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7354,46 +8197,46 @@
         <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>292381</v>
+        <v>316686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
       </c>
       <c r="I4" s="7">
-        <v>277233</v>
+        <v>244295</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
       </c>
       <c r="N4" s="7">
-        <v>569614</v>
+        <v>560980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,46 +8248,46 @@
         <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>78655</v>
+        <v>76929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>72902</v>
+        <v>64585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
       </c>
       <c r="N5" s="7">
-        <v>151557</v>
+        <v>141514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,46 +8299,46 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>6643</v>
+        <v>6372</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>4823</v>
+        <v>4321</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>11465</v>
+        <v>10693</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>554</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>555</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,7 +8350,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7522,7 +8365,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7537,7 +8380,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7560,46 +8403,46 @@
         <v>227</v>
       </c>
       <c r="D8" s="7">
-        <v>312133</v>
+        <v>313503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>396536</v>
+        <v>421354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>617</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
       </c>
       <c r="N8" s="7">
-        <v>708669</v>
+        <v>734857</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,46 +8454,46 @@
         <v>70</v>
       </c>
       <c r="D9" s="7">
-        <v>106936</v>
+        <v>100432</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
       </c>
       <c r="I9" s="7">
-        <v>88754</v>
+        <v>77969</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>417</v>
+        <v>624</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>195689</v>
+        <v>178401</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>570</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,46 +8505,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>9327</v>
+        <v>9613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>391</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>13128</v>
+        <v>12019</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>572</v>
+        <v>631</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>573</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>22455</v>
+        <v>21632</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,7 +8556,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7728,7 +8571,7 @@
         <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>498417</v>
+        <v>511342</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7743,7 +8586,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>926814</v>
+        <v>934889</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7766,46 +8609,46 @@
         <v>437</v>
       </c>
       <c r="D12" s="7">
-        <v>434315</v>
+        <v>421381</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>636</v>
       </c>
       <c r="H12" s="7">
         <v>721</v>
       </c>
       <c r="I12" s="7">
-        <v>489556</v>
+        <v>457284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="M12" s="7">
         <v>1158</v>
       </c>
       <c r="N12" s="7">
-        <v>923871</v>
+        <v>878664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,46 +8660,46 @@
         <v>97</v>
       </c>
       <c r="D13" s="7">
-        <v>108040</v>
+        <v>100342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
       </c>
       <c r="I13" s="7">
-        <v>82484</v>
+        <v>74300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
       </c>
       <c r="N13" s="7">
-        <v>190524</v>
+        <v>174642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,46 +8711,46 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>11283</v>
+        <v>10860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>11435</v>
+        <v>10884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>596</v>
+        <v>652</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>597</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>653</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>22719</v>
+        <v>21744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>598</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,7 +8762,7 @@
         <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>553638</v>
+        <v>532583</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7934,7 +8777,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7949,7 +8792,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1137114</v>
+        <v>1075050</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7972,46 +8815,46 @@
         <v>566</v>
       </c>
       <c r="D16" s="7">
-        <v>614171</v>
+        <v>788169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>602</v>
+        <v>657</v>
       </c>
       <c r="H16" s="7">
         <v>989</v>
       </c>
       <c r="I16" s="7">
-        <v>640974</v>
+        <v>616426</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>603</v>
+        <v>658</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>604</v>
+        <v>659</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="M16" s="7">
         <v>1555</v>
       </c>
       <c r="N16" s="7">
-        <v>1255146</v>
+        <v>1404594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,46 +8866,46 @@
         <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>95694</v>
+        <v>86305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>609</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>610</v>
+        <v>664</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="H17" s="7">
         <v>129</v>
       </c>
       <c r="I17" s="7">
-        <v>91020</v>
+        <v>82427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>614</v>
+        <v>668</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
       </c>
       <c r="N17" s="7">
-        <v>186714</v>
+        <v>168732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>615</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,46 +8917,46 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>12978</v>
+        <v>12186</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>671</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>618</v>
+        <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>619</v>
+        <v>151</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>13222</v>
+        <v>12295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>620</v>
+        <v>672</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>61</v>
+        <v>673</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>26200</v>
+        <v>24481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>353</v>
+        <v>675</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>622</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,7 +8968,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>722844</v>
+        <v>886659</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8140,7 +8983,7 @@
         <v>1138</v>
       </c>
       <c r="I19" s="7">
-        <v>745216</v>
+        <v>711148</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8155,7 +8998,7 @@
         <v>1802</v>
       </c>
       <c r="N19" s="7">
-        <v>1468060</v>
+        <v>1597807</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8178,46 +9021,46 @@
         <v>574</v>
       </c>
       <c r="D20" s="7">
-        <v>516029</v>
+        <v>485786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>624</v>
+        <v>677</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="H20" s="7">
         <v>887</v>
       </c>
       <c r="I20" s="7">
-        <v>526296</v>
+        <v>483816</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="M20" s="7">
         <v>1461</v>
       </c>
       <c r="N20" s="7">
-        <v>1042325</v>
+        <v>969603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,46 +9072,46 @@
         <v>75</v>
       </c>
       <c r="D21" s="7">
-        <v>69539</v>
+        <v>61766</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>632</v>
+        <v>685</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>633</v>
+        <v>686</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
       </c>
       <c r="I21" s="7">
-        <v>61344</v>
+        <v>55444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>636</v>
+        <v>689</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>444</v>
+        <v>690</v>
       </c>
       <c r="M21" s="7">
         <v>175</v>
       </c>
       <c r="N21" s="7">
-        <v>130883</v>
+        <v>117210</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>637</v>
+        <v>691</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>638</v>
+        <v>692</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,46 +9123,46 @@
         <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>13572</v>
+        <v>12676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>169</v>
+        <v>694</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>640</v>
+        <v>695</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>400</v>
+        <v>696</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>8777</v>
+        <v>8096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>641</v>
+        <v>697</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>642</v>
+        <v>698</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>699</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>22349</v>
+        <v>20772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>700</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,7 +9174,7 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>599140</v>
+        <v>560228</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8346,7 +9189,7 @@
         <v>1001</v>
       </c>
       <c r="I23" s="7">
-        <v>596417</v>
+        <v>547356</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8361,7 +9204,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1195557</v>
+        <v>1107584</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8381,49 +9224,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>931</v>
+        <v>512</v>
       </c>
       <c r="D24" s="7">
-        <v>636136</v>
+        <v>333681</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>645</v>
+        <v>702</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>477</v>
+        <v>703</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>646</v>
+        <v>704</v>
       </c>
       <c r="H24" s="7">
-        <v>1601</v>
+        <v>766</v>
       </c>
       <c r="I24" s="7">
-        <v>972426</v>
+        <v>579733</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>647</v>
+        <v>705</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
       <c r="M24" s="7">
-        <v>2532</v>
+        <v>1278</v>
       </c>
       <c r="N24" s="7">
-        <v>1608563</v>
+        <v>913414</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8432,49 +9275,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7">
-        <v>56307</v>
+        <v>31295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>654</v>
+        <v>550</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>655</v>
+        <v>712</v>
       </c>
       <c r="H25" s="7">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="I25" s="7">
-        <v>49136</v>
+        <v>24892</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>657</v>
+        <v>714</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>658</v>
+        <v>715</v>
       </c>
       <c r="M25" s="7">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="N25" s="7">
-        <v>105442</v>
+        <v>56187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>659</v>
+        <v>716</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>660</v>
+        <v>717</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8483,49 +9326,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>3827</v>
+        <v>2133</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>597</v>
+        <v>720</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>4425</v>
+        <v>3150</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>227</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>8252</v>
+        <v>5283</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>664</v>
+        <v>554</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>530</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,10 +9377,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D27" s="7">
-        <v>696270</v>
+        <v>367108</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8549,10 +9392,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025987</v>
+        <v>607775</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8564,10 +9407,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1722258</v>
+        <v>974883</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8581,55 +9424,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2870</v>
+        <v>419</v>
       </c>
       <c r="D28" s="7">
-        <v>2805166</v>
+        <v>261308</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="H28" s="7">
-        <v>4731</v>
+        <v>835</v>
       </c>
       <c r="I28" s="7">
-        <v>3303022</v>
+        <v>405770</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>670</v>
+        <v>727</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="M28" s="7">
-        <v>7601</v>
+        <v>1254</v>
       </c>
       <c r="N28" s="7">
-        <v>6108188</v>
+        <v>667078</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>673</v>
+        <v>730</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>282</v>
+        <v>731</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8638,49 +9481,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="D29" s="7">
-        <v>515170</v>
+        <v>19660</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>733</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>675</v>
+        <v>734</v>
       </c>
       <c r="H29" s="7">
-        <v>557</v>
+        <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>445638</v>
+        <v>19131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>677</v>
+        <v>736</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>678</v>
+        <v>737</v>
       </c>
       <c r="M29" s="7">
-        <v>1006</v>
+        <v>79</v>
       </c>
       <c r="N29" s="7">
-        <v>960809</v>
+        <v>38791</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>679</v>
+        <v>738</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>680</v>
+        <v>739</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>681</v>
+        <v>740</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8689,49 +9532,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>57631</v>
+        <v>1450</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>741</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>450</v>
+        <v>302</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>682</v>
+        <v>278</v>
       </c>
       <c r="H30" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>55810</v>
+        <v>931</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>683</v>
+        <v>35</v>
       </c>
       <c r="M30" s="7">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N30" s="7">
-        <v>113441</v>
+        <v>2381</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>684</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,63 +9583,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282418</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708249</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2870</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2920513</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4731</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3208677</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7601</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6129190</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>449</v>
+      </c>
+      <c r="D33" s="7">
+        <v>476728</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="H33" s="7">
+        <v>557</v>
+      </c>
+      <c r="I33" s="7">
+        <v>398747</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1006</v>
+      </c>
+      <c r="N33" s="7">
+        <v>875475</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>50</v>
+      </c>
+      <c r="D34" s="7">
+        <v>55289</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H34" s="7">
+        <v>70</v>
+      </c>
+      <c r="I34" s="7">
+        <v>51696</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="M34" s="7">
+        <v>120</v>
+      </c>
+      <c r="N34" s="7">
+        <v>106985</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3369</v>
       </c>
-      <c r="D31" s="7">
-        <v>3377967</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3452530</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5358</v>
       </c>
-      <c r="I31" s="7">
-        <v>3804470</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3659120</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8727</v>
       </c>
-      <c r="N31" s="7">
-        <v>7182438</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>7111650</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
